--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1396,8 +1396,8 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>closed</t>
@@ -2361,7 +2361,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="105.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -10121,11 +10121,11 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -10143,14 +10143,12 @@
         <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10220,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10244,7 +10242,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="640">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,11 +761,11 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -1201,10 +1201,6 @@
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -8547,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
@@ -8575,10 +8571,10 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>343</v>
@@ -8589,13 +8585,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8620,7 +8616,7 @@
         <v>264</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>378</v>
@@ -8658,7 +8654,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8691,13 +8687,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>343</v>
@@ -8708,13 +8704,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8739,7 +8735,7 @@
         <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>378</v>
@@ -8777,7 +8773,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8810,13 +8806,13 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>343</v>
@@ -8827,13 +8823,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
@@ -8858,7 +8854,7 @@
         <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>378</v>
@@ -8896,7 +8892,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8929,13 +8925,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>343</v>
@@ -8946,13 +8942,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8973,7 @@
         <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>378</v>
@@ -9015,7 +9011,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -9048,13 +9044,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>343</v>
@@ -9065,13 +9061,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -9096,7 +9092,7 @@
         <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>378</v>
@@ -9134,7 +9130,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -9167,13 +9163,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>343</v>
@@ -9184,13 +9180,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9215,7 +9211,7 @@
         <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>378</v>
@@ -9253,7 +9249,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9286,13 +9282,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>343</v>
@@ -9303,13 +9299,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
@@ -9334,7 +9330,7 @@
         <v>264</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>378</v>
@@ -9372,7 +9368,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9405,13 +9401,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>343</v>
@@ -9422,10 +9418,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9451,10 +9447,10 @@
         <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9485,7 +9481,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9503,7 +9499,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9521,13 +9517,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9535,10 +9531,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9561,13 +9557,13 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9618,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9639,21 +9635,21 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9676,13 +9672,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9733,7 +9729,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9751,10 +9747,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9765,10 +9761,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9791,17 +9787,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9838,17 +9834,17 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9860,19 +9856,19 @@
         <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9880,13 +9876,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>78</v>
@@ -9908,17 +9904,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9967,7 +9963,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9979,19 +9975,19 @@
         <v>212</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9999,10 +9995,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10114,10 +10110,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10229,13 +10225,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
@@ -10257,13 +10253,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10346,10 +10342,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10461,10 +10457,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10576,10 +10572,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10605,13 +10601,13 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10619,49 +10615,49 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>90</v>
@@ -10693,10 +10689,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10722,10 +10718,10 @@
         <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10737,7 +10733,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10756,25 +10752,25 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10806,13 +10802,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10834,13 +10830,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10923,10 +10919,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11038,10 +11034,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11155,13 +11151,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -11186,7 +11182,7 @@
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>205</v>
@@ -11272,10 +11268,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11387,10 +11383,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11502,10 +11498,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11531,13 +11527,13 @@
         <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11545,7 +11541,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11587,7 +11583,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11619,10 +11615,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11648,10 +11644,10 @@
         <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11682,7 +11678,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11700,7 +11696,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11732,13 +11728,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11763,7 +11759,7 @@
         <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>205</v>
@@ -11849,10 +11845,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11964,10 +11960,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12079,10 +12075,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12108,13 +12104,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12122,7 +12118,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>78</v>
@@ -12164,7 +12160,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>90</v>
@@ -12196,10 +12192,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12225,10 +12221,10 @@
         <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12279,7 +12275,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12311,13 +12307,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>78</v>
@@ -12428,10 +12424,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12543,10 +12539,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12658,10 +12654,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12687,13 +12683,13 @@
         <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12701,7 +12697,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>78</v>
@@ -12743,7 +12739,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>90</v>
@@ -12775,10 +12771,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12804,10 +12800,10 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12858,7 +12854,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12890,13 +12886,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>78</v>
@@ -12921,7 +12917,7 @@
         <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>205</v>
@@ -13007,10 +13003,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13122,10 +13118,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13237,10 +13233,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13266,13 +13262,13 @@
         <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13280,7 +13276,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>78</v>
@@ -13322,7 +13318,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>90</v>
@@ -13354,10 +13350,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13383,10 +13379,10 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13437,7 +13433,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13469,13 +13465,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -13586,10 +13582,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13701,10 +13697,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13816,10 +13812,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13845,13 +13841,13 @@
         <v>137</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13859,7 +13855,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13901,7 +13897,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -13933,10 +13929,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13962,10 +13958,10 @@
         <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14016,7 +14012,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14048,13 +14044,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -14079,7 +14075,7 @@
         <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>205</v>
@@ -14165,10 +14161,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14280,10 +14276,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14395,10 +14391,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14424,13 +14420,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14438,7 +14434,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>78</v>
@@ -14480,7 +14476,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>90</v>
@@ -14512,10 +14508,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14541,10 +14537,10 @@
         <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14595,7 +14591,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14627,13 +14623,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>78</v>
@@ -14658,7 +14654,7 @@
         <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>205</v>
@@ -14744,10 +14740,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14859,10 +14855,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14974,10 +14970,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15003,13 +14999,13 @@
         <v>137</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15017,7 +15013,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15059,7 +15055,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15091,10 +15087,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15120,10 +15116,10 @@
         <v>328</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15174,7 +15170,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15206,10 +15202,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15235,13 +15231,13 @@
         <v>137</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15249,7 +15245,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15291,7 +15287,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>90</v>
@@ -15323,10 +15319,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15349,13 +15345,13 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15406,7 +15402,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15438,10 +15434,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15467,10 +15463,10 @@
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15482,7 +15478,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15500,37 +15496,37 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Z113" t="s" s="2">
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AA113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF113" t="s" s="2">
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -15539,13 +15535,13 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15553,10 +15549,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15582,16 +15578,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15640,7 +15636,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15658,10 +15654,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>294</v>
@@ -15672,10 +15668,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15701,16 +15697,16 @@
         <v>179</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15738,28 +15734,28 @@
         <v>257</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z115" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Z115" t="s" s="2">
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15777,13 +15773,13 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM115" t="s" s="2">
+      <c r="AN115" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15791,10 +15787,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15817,16 +15813,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15876,7 +15872,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15908,10 +15904,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15937,10 +15933,10 @@
         <v>297</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15991,7 +15987,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16012,7 +16008,7 @@
         <v>202</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>303</v>
@@ -16023,10 +16019,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16049,16 +16045,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16108,7 +16104,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16129,7 +16125,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16140,10 +16136,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16255,10 +16251,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16372,14 +16368,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16401,10 +16397,10 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>114</v>
@@ -16459,7 +16455,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16491,10 +16487,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16520,10 +16516,10 @@
         <v>179</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16553,11 +16549,11 @@
         <v>257</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
       </c>
@@ -16574,7 +16570,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16595,7 +16591,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16606,10 +16602,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16635,10 +16631,10 @@
         <v>328</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16689,7 +16685,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16710,7 +16706,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16721,10 +16717,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16747,16 +16743,16 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16806,7 +16802,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16827,7 +16823,7 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16838,10 +16834,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16864,16 +16860,16 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M125" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="N125" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16923,7 +16919,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16944,7 +16940,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16955,10 +16951,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16981,13 +16977,13 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17038,7 +17034,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17059,7 +17055,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17070,10 +17066,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17185,10 +17181,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17302,14 +17298,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17331,10 +17327,10 @@
         <v>111</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>114</v>
@@ -17389,7 +17385,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17421,10 +17417,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17450,10 +17446,10 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17504,7 +17500,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>90</v>
@@ -17536,10 +17532,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17565,10 +17561,10 @@
         <v>297</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17619,7 +17615,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17640,7 +17636,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17651,10 +17647,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17680,10 +17676,10 @@
         <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17734,7 +17730,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17755,7 +17751,7 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17766,10 +17762,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17792,17 +17788,17 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17851,7 +17847,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1392,7 +1392,7 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
@@ -1425,7 +1425,10 @@
 </t>
   </si>
   <si>
-    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>SituationExercice.boiteLettresMSS</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.id</t>
@@ -1581,9 +1584,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>description : Description fonctionnelle de la boîte aux lettres.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:description.id</t>
   </si>
   <si>
@@ -1620,9 +1620,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>serviceRattachement : Nom et description du service de rattachement de l’utilisateur de la boîte aux lettres dans l’organisation.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:service.id</t>
   </si>
   <si>
@@ -1659,10 +1656,6 @@
     <t>digitization</t>
   </si>
   <si>
-    <t>dematerialisation : Indicateur d’acceptation de la dématérialisation (ou « Zéro papier »). - "true" : Dématérialisation acceptée 
-- "false" : Dématérialisation refusée.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:digitization.id</t>
   </si>
   <si>
@@ -1679,10 +1672,6 @@
   </si>
   <si>
     <t>listeRouge</t>
-  </si>
-  <si>
-    <t>listeRouge : Indicateur liste rouge. "true": Boîte aux lettres en liste rouge;
-"false": La boîte aux lettres peut être publiée</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:listeRouge.id</t>
@@ -9978,7 +9967,7 @@
         <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>448</v>
@@ -9995,10 +9984,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10110,10 +10099,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10225,13 +10214,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
@@ -10253,13 +10242,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10342,10 +10331,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10457,10 +10446,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10572,10 +10561,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10601,13 +10590,13 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10615,7 +10604,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -10657,7 +10646,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>90</v>
@@ -10689,10 +10678,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10718,10 +10707,10 @@
         <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10733,7 +10722,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10752,7 +10741,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10759,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10802,13 +10791,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10830,13 +10819,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10919,10 +10908,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11034,10 +11023,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11151,13 +11140,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -11182,7 +11171,7 @@
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>205</v>
@@ -11268,10 +11257,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11383,10 +11372,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11498,10 +11487,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11527,13 +11516,13 @@
         <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11541,7 +11530,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11583,7 +11572,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11615,10 +11604,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11644,10 +11633,10 @@
         <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11678,7 +11667,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11696,7 +11685,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11728,13 +11717,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11759,7 +11748,7 @@
         <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>204</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>205</v>
@@ -11848,7 +11837,7 @@
         <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11963,7 +11952,7 @@
         <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12078,7 +12067,7 @@
         <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12104,13 +12093,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12118,7 +12107,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>78</v>
@@ -12160,7 +12149,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>90</v>
@@ -12195,7 +12184,7 @@
         <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12221,10 +12210,10 @@
         <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12275,7 +12264,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12310,7 +12299,7 @@
         <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>509</v>
@@ -12427,7 +12416,7 @@
         <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12542,7 +12531,7 @@
         <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12657,7 +12646,7 @@
         <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12683,13 +12672,13 @@
         <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12739,7 +12728,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>90</v>
@@ -12774,7 +12763,7 @@
         <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12800,10 +12789,10 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12854,7 +12843,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12889,7 +12878,7 @@
         <v>514</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>515</v>
@@ -12917,7 +12906,7 @@
         <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>516</v>
+        <v>204</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>205</v>
@@ -13003,10 +12992,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13118,10 +13107,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13233,10 +13222,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13262,13 +13251,13 @@
         <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13318,7 +13307,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>90</v>
@@ -13350,10 +13339,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13379,10 +13368,10 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13433,7 +13422,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13465,13 +13454,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -13582,10 +13571,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13697,10 +13686,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13812,10 +13801,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13841,13 +13830,13 @@
         <v>137</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13855,7 +13844,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13897,7 +13886,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -13929,10 +13918,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13958,10 +13947,10 @@
         <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14012,7 +14001,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14044,13 +14033,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -14075,7 +14064,7 @@
         <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>529</v>
+        <v>204</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>205</v>
@@ -14161,10 +14150,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14276,10 +14265,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14391,10 +14380,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14420,13 +14409,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14434,7 +14423,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>78</v>
@@ -14476,7 +14465,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>90</v>
@@ -14508,10 +14497,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14537,10 +14526,10 @@
         <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14591,7 +14580,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14623,13 +14612,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>78</v>
@@ -14654,7 +14643,7 @@
         <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>536</v>
+        <v>204</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>205</v>
@@ -14740,10 +14729,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14855,10 +14844,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14970,10 +14959,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14999,13 +14988,13 @@
         <v>137</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15013,7 +15002,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15055,7 +15044,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15087,10 +15076,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15116,10 +15105,10 @@
         <v>328</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15170,7 +15159,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15202,10 +15191,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15231,13 +15220,13 @@
         <v>137</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15245,7 +15234,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15287,7 +15276,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>90</v>
@@ -15319,10 +15308,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15345,13 +15334,13 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15402,7 +15391,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15434,10 +15423,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15463,10 +15452,10 @@
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15478,7 +15467,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15496,37 +15485,37 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -15535,13 +15524,13 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15549,10 +15538,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15578,16 +15567,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O114" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15636,7 +15625,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15654,10 +15643,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>294</v>
@@ -15668,10 +15657,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15697,16 +15686,16 @@
         <v>179</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15734,10 +15723,10 @@
         <v>257</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15755,7 +15744,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15773,13 +15762,13 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15787,10 +15776,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15813,16 +15802,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15872,7 +15861,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15904,10 +15893,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15933,10 +15922,10 @@
         <v>297</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15987,7 +15976,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16008,7 +15997,7 @@
         <v>202</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>303</v>
@@ -16019,10 +16008,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16045,16 +16034,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16104,7 +16093,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16125,7 +16114,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16136,10 +16125,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16251,10 +16240,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16368,14 +16357,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16397,10 +16386,10 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>114</v>
@@ -16455,7 +16444,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16487,10 +16476,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16516,10 +16505,10 @@
         <v>179</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16549,10 +16538,10 @@
         <v>257</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16570,7 +16559,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16591,7 +16580,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16602,10 +16591,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16631,10 +16620,10 @@
         <v>328</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16685,7 +16674,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16706,7 +16695,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16717,10 +16706,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16743,16 +16732,16 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16802,7 +16791,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16823,7 +16812,7 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16834,10 +16823,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16860,16 +16849,16 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16919,7 +16908,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16940,7 +16929,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16951,10 +16940,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16977,13 +16966,13 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17034,7 +17023,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17055,7 +17044,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17066,10 +17055,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17181,10 +17170,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17298,14 +17287,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17327,10 +17316,10 @@
         <v>111</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>114</v>
@@ -17385,7 +17374,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17417,10 +17406,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17446,10 +17435,10 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17500,7 +17489,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>90</v>
@@ -17532,10 +17521,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17561,10 +17550,10 @@
         <v>297</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17615,7 +17604,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17636,7 +17625,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17647,10 +17636,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17676,10 +17665,10 @@
         <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17730,7 +17719,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17751,7 +17740,7 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17762,10 +17751,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17788,17 +17777,17 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17847,7 +17836,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
